--- a/10_Practicas/Tabla_de_Frecuencias/Ejemplo/Resultados/Resultados_Ej_Temp_Llen.xlsx
+++ b/10_Practicas/Tabla_de_Frecuencias/Ejemplo/Resultados/Resultados_Ej_Temp_Llen.xlsx
@@ -50,25 +50,25 @@
     <t>FRA</t>
   </si>
   <si>
-    <t>(20.7, 23.51)</t>
-  </si>
-  <si>
-    <t>(23.51, 26.33)</t>
-  </si>
-  <si>
-    <t>(26.33, 29.15)</t>
-  </si>
-  <si>
-    <t>(29.15, 31.96)</t>
-  </si>
-  <si>
-    <t>(31.96, 34.78)</t>
-  </si>
-  <si>
-    <t>(34.78, 37.6)</t>
-  </si>
-  <si>
-    <t>(37.6, 40.41)</t>
+    <t>[20.7, 23.51]</t>
+  </si>
+  <si>
+    <t>[23.51, 26.33]</t>
+  </si>
+  <si>
+    <t>[26.33, 29.14]</t>
+  </si>
+  <si>
+    <t>[29.14, 31.96]</t>
+  </si>
+  <si>
+    <t>[31.96, 34.77]</t>
+  </si>
+  <si>
+    <t>[34.77, 37.59]</t>
+  </si>
+  <si>
+    <t>[37.59, 40.4]</t>
   </si>
   <si>
     <t>Medidas De Centramiento Y Dispersión</t>
